--- a/biology/Botanique/Zygopetalum/Zygopetalum.xlsx
+++ b/biology/Botanique/Zygopetalum/Zygopetalum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zygopetalum est un genre de plantes herbacées de la famille des Orchidées, originaire des forêts de moyenne altitude du Pérou et du Brésil.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Zygopetalum maculatum fut la première espèce décrite dès 1816 par Karl Sigismund Kunth sous le nom de Dendrobium maculatum (basionyme) mais en 1827, William Jackson Hooker crée le  genre Zygopetalum en attribuant à cette même espèce le nom de Zygopetalum mackayi.
 La plupart sont des orchidées épiphytes à croissance sympodiale mais certaines sont terrestres et géophytes. Les feuilles sont longues (environ 30 centimètres) et fines, elles prolongent des pseudobulbes ovoïdes. Les fleurs ont des pétales et sépales vert et brun avec un labelle moucheté blanc et violet ou bleu voir mauve, elles sont généralement parfumées, ce parfum étant proche de celui de la jacinthe.
@@ -543,7 +557,9 @@
           <t>Origine du nom de genre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le nom Zygon (en grec ancien ζυγόν) ou Joug (jonction, joint) et Petalon (πέταλον) car les pétales et les sépales des fleurs sont soudés au pied de la colonne.
 Le nom viendrait de zygon qui signifie joug et petalum (pétale) car le relief à la base du labelle est en forme de joug.</t>
@@ -574,9 +590,11 @@
           <t>Les espèces botaniques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>15 espèces sont répertoriées au sein de ce genre[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>15 espèces sont répertoriées au sein de ce genre.
 Les espèces terrestres :
 Zygopetalum brachypetalum Lindl. (1844).
 Zygopetalum maculatum (Kunth) Garay (1970). Espèce type
@@ -621,7 +639,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de Zygopetalum sont assez aisées à cultiver en appartement. Étant donné sa croissance relativement rapide, il est nécessaire de rempoter chaque année au début du printemps. De plus, la plante n'aime pas être à l'étroit dans son pot, contrairement aux autres orchidées.
 Hygromètrie
@@ -633,7 +653,43 @@
 Les espèces de Zygopetalum comme les espèces de Cymbidium sont des orchidées de serre froide, et ont besoin de subir en été des écarts de température entre le jour et la nuit, c'est pourquoi il est recommandé de les sortir dehors de mai à octobre et de les placer dans un endroit un peu ombragé.
 Éclairage
 Il faut éviter le soleil direct, mais la plante aime beaucoup la lumière.
-Quelques photos
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Zygopetalum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zygopetalum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Quelques photos</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Zygopetalum crinitum.
 			Zygopetalum intermedium, exposition horticole Royal Flora Ratchaphruek, Thaïlande
 			Zygopetalum pedicellatum.
